--- a/examples/sources/data/unsolved/to_schedule/2019-02-07.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-02-07.xlsx
@@ -2598,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" s="2">
         <v>43503</v>
@@ -2639,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" s="2">
         <v>43503</v>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -5562,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="N111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O111" s="2">
         <v>43503</v>
@@ -5603,7 +5603,7 @@
         <v>1</v>
       </c>
       <c r="N112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O112" s="2">
         <v>43503</v>
@@ -6113,7 +6113,7 @@
         <v>1</v>
       </c>
       <c r="N124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O124" s="2">
         <v>43503</v>
@@ -6236,7 +6236,7 @@
         <v>1</v>
       </c>
       <c r="N127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O127" s="2">
         <v>43503</v>
@@ -6359,7 +6359,7 @@
         <v>1</v>
       </c>
       <c r="N130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O130" s="2">
         <v>43503</v>
@@ -7174,7 +7174,7 @@
         <v>1</v>
       </c>
       <c r="N149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O149" s="2">
         <v>43503</v>
@@ -7265,7 +7265,7 @@
         <v>1</v>
       </c>
       <c r="N151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O151" s="2">
         <v>43503</v>
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="M157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N157">
         <v>1</v>
